--- a/list-one-push-no-epidural.xlsx
+++ b/list-one-push-no-epidural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1825938/Documents/quizbank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD4069-C861-B947-9070-34B0F7E85393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204E7C2-1912-0641-934E-127E4034D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20020" yWindow="520" windowWidth="20840" windowHeight="22400" xr2:uid="{F5571BD5-EB0B-EE4E-9552-527778988CCC}"/>
+    <workbookView xWindow="24180" yWindow="500" windowWidth="20840" windowHeight="22400" xr2:uid="{F5571BD5-EB0B-EE4E-9552-527778988CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>sample &lt;- rnorm(15, mean = 50, sd = 30), rep a random element 2 by 2 times</t>
+  </si>
+  <si>
+    <t>Type of Sol</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>mult choice</t>
+  </si>
+  <si>
+    <t>What is the interquartile range of the following sample:</t>
+  </si>
+  <si>
+    <t>sample &lt;- sample(0:100, 14, replace = TRUE)</t>
   </si>
 </sst>
 </file>
@@ -475,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770463FC-439A-7843-85D6-C7A4E4EBD8B0}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -486,9 +501,10 @@
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,8 +517,11 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -515,8 +534,11 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -529,8 +551,11 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -543,16 +568,28 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -560,7 +597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -576,7 +613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -584,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -592,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -600,11 +637,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
